--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8382C046-0BAD-4AC6-9254-604207F72CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D3233A-12AB-40B8-BF81-2E2364588756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{21FFF4A9-BEE3-4716-82C1-DB13693BAF4B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>MODELO</t>
   </si>
@@ -166,6 +166,39 @@
   </si>
   <si>
     <t>5.EColiSystem.cs{Dependency=Entities.WithReadOnly(parentMap).ForEach((Entity entity,int entityInQueryIndex,ref LocalTransform transform,ref EColiComponent organism)=&gt;{float maxScale=organism.MaxScale;organism.GrowthDuration=organism.DivisionInterval=organism.TimeReference*organism.SeparationThreshold;if(transform.Scale&lt;maxScale){organism.GrowthTime+=deltaTime;float t=math.clamp(organism.GrowthTime/organism.GrowthDuration,0f,1f);float initialScale=organism.IsInitialCell?maxScale:0.01f;transform.Scale=math.lerp(initialScale,maxScale,t);}if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*12345);int sign=rng.NextFloat()&lt;0.5f?1:-1;Entity child=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform childTransform=transform;childTransform.Scale=0.01f;EColiComponent childData=organism;childData.GrowthTime=0f;childData.TimeSinceLastDivision=0f;childData.HasGeneratedChild=false;childData.IsInitialCell=false;childData.Parent=entity;childData.SeparationSign=sign;float3 upDir=math.mul(transform.Rotation,new float3(0,sign,0));childTransform.Position=transform.Position+upDir*(transform.Scale*0.25f);ecb.SetComponent(entityInQueryIndex,child,childTransform);ecb.SetComponent(entityInQueryIndex,child,childData);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData parentData)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float offset=math.lerp(0f,parentData.Scale*4.9f,transform.Scale/maxScale);float3 up=math.mul(parentData.Rotation,new float3(0,organism.SeparationSign,0));transform.Position=parentData.Position+up*offset;transform.Rotation=parentData.Rotation;}else organism.Parent=Entity.Null;}}</t>
+  </si>
+  <si>
+    <t>NUEVO DESGLOSE RESPUESTA ASSISTANT</t>
+  </si>
+  <si>
+    <t>1.PrefabMaterialCreator.cs{public static class PrefabMaterialCreator{const string pF=\"Assets/Resources/Prefabs\",mF=\"Assets/Resources/PrefabsMaterials\";[MenuItem(\"Tools/Crear Prefabs y Materiales\")]public static void CreatePrefabsAndMaterials(){if(!AssetDatabase.IsValidFolder(pF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"Prefabs\");Debug.Log(\"Carpeta creada: \"+pF);}if(!AssetDatabase.IsValidFolder(mF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"PrefabsMaterials\");Debug.Log(\"Carpeta creada: \"+mF);}CPAM(\"SCerevisiae\",PrimitiveType.Sphere,new Vector3(5,5,5),new Vector3(90,0,0),0);CPAM(\"EColi\",PrimitiveType.Capsule,new Vector3(.5f,2,0.5f),new Vector3(90,0,0),1);AssetDatabase.SaveAssets();AssetDatabase.Refresh();Debug.Log(\"Prefabs y materiales creados.\");}static void CPAM(string n,PrimitiveType t,Vector3 s,Vector3 r,int c){var o=GameObject.CreatePrimitive(t);o.name=n;o.transform.rotation=Quaternion.Euler(r);o.transform.localScale=s;var col=o.GetComponent&lt;Collider&gt;();if(col!=null)Object.DestroyImmediate(col);if(c==0)o.AddComponent&lt;SphereCollider&gt;();else o.AddComponent&lt;CapsuleCollider&gt;();var sh=Shader.Find(\"Universal Render Pipeline/Lit\");if(sh==null){Debug.LogError(\"Shader URP/Lit no encontrado.\");return;}var m=new Material(sh);m.color=n==\"SCerevisiae\"?new Color(0,0,1,1):n==\"EColi\"?new Color(0,1,0,1):Color.white;AssetDatabase.CreateAsset(m,Path.Combine(mF,n+\".mat\"));AssetDatabase.SaveAssets();AssetDatabase.Refresh();o.GetComponent&lt;Renderer&gt;().sharedMaterial=m;PrefabUtility.SaveAsPrefabAsset(o,Path.Combine(pF,n+\".prefab\"));Object.DestroyImmediate(o);}}}</t>
+  </si>
+  <si>
+    <t>2.CreatePrefabsOnClick.cs{private void CrearEntidad(Vector3 p){if(currentPrefabIndex&gt;=prefabs.Count)return;var sQ=spawnerQuery.ToEntityArray(Allocator.Temp);if(currentPrefabIndex&gt;=sQ.Length){Debug.LogError($\"No se encontró spawner en índice {currentPrefabIndex}\");sQ.Dispose();return;}Entity s=sQ[currentPrefabIndex];sQ.Dispose();Entity pe=entityManager.GetComponentData&lt;PrefabEntityComponent&gt;(s).prefab;Entity e=entityManager.Instantiate(pe);float os=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Scale;quaternion or=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Rotation;float ry=UnityEngine.Random.Range(0f,360f);quaternion nr=math.mul(or,quaternion.RotateY(math.radians(ry)));float h=os*.5f;float3 ap=new float3(p.x,math.max(p.y+h,h),p.z);entityManager.SetComponentData(e,new LocalTransform{Position=ap,Rotation=nr,Scale=os});string n=prefabs[currentPrefabIndex].name;switch(n){case\"EColi\":entityManager.AddComponentData(e,new EColiComponent{TimeReference=1200f,SeparationThreshold=0.7f,MaxScale=1f,GrowthTime=0f,GrowthDuration=1200f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=1200f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;case\"SCerevisiae\":entityManager.AddComponentData(e,new SCerevisiaeComponent{TimeReference=5400f,SeparationThreshold=0.7f,MaxScale=5f,GrowthTime=0f,GrowthDuration=5400f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=5400f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;default:Debug.LogWarning($\"No hay componente ECS para '{n}'\");break;}AddPhysicsComponents(e,n,os);Debug.Log($\"Entidad '{n}' creada en {ap}\");}private void AddPhysicsComponents(Entity e,string n,float s){BlobAssetReference&lt;Unity.Physics.Collider&gt;c=default;Material m=new Material{Friction=8f,Restitution=0f};switch(n){case\"EColi\":c=Unity.Physics.CapsuleCollider.Create(new CapsuleGeometry{Vertex0=new float3(0,-s,0),Vertex1=new float3(0,s,0),Radius=0.25f},CollisionFilter.Default,m);break;case\"SCerevisiae\":c=Unity.Physics.SphereCollider.Create(new SphereGeometry{Center=float3.zero,Radius=s*0.1f},CollisionFilter.Default,m);break;default:Debug.LogWarning($\"No collider para '{n}'\");return;}entityManager.AddComponentData(e,new PhysicsCollider{Value=c});if(c.IsCreated){var mp=c.Value.MassProperties;entityManager.AddComponentData(e,PhysicsMass.CreateDynamic(mp,1f));}entityManager.AddComponentData(e,new PhysicsVelocity{Linear=float3.zero,Angular=float3.zero});entityManager.AddComponentData(e,new PhysicsGravityFactor{Value=1f});entityManager.AddComponentData(e,new PhysicsDamping{Linear=0f,Angular=50f});Debug.Log($\"Física añadida a '{n}' (fricción alta, damping angular)\");}}</t>
+  </si>
+  <si>
+    <t>3.EColiComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct EColiComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;}}</t>
+  </si>
+  <si>
+    <t>4.SCerevisiaeComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct SCerevisiaeComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;public float3 GrowthDirection;}}</t>
+  </si>
+  <si>
+    <t>5.EColiSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*12345);int s=rng.NextFloat()&lt;0.5f?1:-1;Entity c=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;EColiComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.HasGeneratedChild=false;cd.Parent=entity;cd.IsInitialCell=false;cd.SeparationSign=s;float3 u=math.mul(transform.Rotation,new float3(0,s,0));ct.Position=transform.Position+u*(transform.Scale*0.25f);ecb.SetComponent(entityInQueryIndex,c,ct);ecb.SetComponent(entityInQueryIndex,c,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float off=math.lerp(0f,pd.Scale*4.9f,transform.Scale/maxScale);float3 u=math.mul(pd.Rotation,new float3(0,organism.SeparationSign,0));transform.Position=pd.Position+u*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
+  </si>
+  <si>
+    <t>6.SCerevisiaeSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*99999);float angle=rng.NextFloat(0f,math.PI*2f);float3 rnd=new float3(math.cos(angle),math.sin(angle),0f);Entity child=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;SCerevisiaeComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.IsInitialCell=false;cd.Parent=entity;cd.GrowthDirection=rnd;ct.Position=transform.Position;ecb.SetComponent(entityInQueryIndex,child,ct);ecb.SetComponent(entityInQueryIndex,child,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float r=math.clamp(transform.Scale/(organism.SeparationThreshold*maxScale),0f,1f);float off=(pd.Scale*0.5f)*r;float3 wd=math.mul(pd.Rotation,organism.GrowthDirection);transform.Position=pd.Position+wd*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Eres un modelo especializado en generar código C# para simulaciones de Unity. Considera que los tiempos son en segundos; además, los colores en Unity se expresan en valores RGB divididos en 255. Debes contestar tal cual como se te fue entrenado, sin agregar nada más de lo que se espera en C#. No puedes responder en ningún otro lenguaje de programación ni añadir comentarios o palabras innecesarias. Solo puedes responder a consultas relacionadas con simulaciones en Unity sobre e.coli, s.cerevisiae o ambas, donde se indiquen: - El color de la(s) célula(s). - El tiempo de duplicación en minutos. - El porcentaje de crecimiento para separarse del padre. Tu respuesta debe incluir estrictamente estos scripts en el orden especificado: - Si se piden ambas (e.coli y s.cerevisiae): 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.EColiComponent.cs, 4.SCerevisiaeComponent.cs, 5.EColiSystem.cs, 6.SCerevisiaeSystem.cs. - Si se pide solo e.coli: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.EColiComponent.cs, 4.EColiSystem.cs. - Si se pide solo s.cerevisiae: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.SCerevisiaeComponent.cs, 4.SCerevisiaeSystem.cs. El formato de cada script debe ser \"1.PrefabMaterialCreator.cs{...}2.CreatePrefabsOnClick.cs{...}\" etc. Cualquier pregunta que no cumpla con las características anteriores será respondida con: \"ERROR FORMATO DE PREGUNTA.\" Y recuerda, responde tal cual como se te entrenó.</t>
+  </si>
+  <si>
+    <t>1.PrefabMaterialCreator.cs{public static class PrefabMaterialCreator{const string pF=\"Assets/Resources/Prefabs\",mF=\"Assets/Resources/PrefabsMaterials\";[MenuItem(\"Tools/Crear Prefabs y Materiales\")]public static void CreatePrefabsAndMaterials(){if(!AssetDatabase.IsValidFolder(pF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"Prefabs\");Debug.Log(\"Carpeta creada: \"+pF);}if(!AssetDatabase.IsValidFolder(mF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"PrefabsMaterials\");Debug.Log(\"Carpeta creada: \"+mF);}CPAM(\"SCerevisiae\",PrimitiveType.Sphere,new Vector3(5,5,5),new Vector3(90,0,0),0);CPAM(\"EColi\",PrimitiveType.Capsule,new Vector3(.5f,2,0.5f),new Vector3(90,0,0),1);AssetDatabase.SaveAssets();AssetDatabase.Refresh();Debug.Log(\"Prefabs y materiales creados.\");}static void CPAM(string n,PrimitiveType t,Vector3 s,Vector3 r,int c){var o=GameObject.CreatePrimitive(t);o.name=n;o.transform.rotation=Quaternion.Euler(r);o.transform.localScale=s;var col=o.GetComponent&lt;Collider&gt;();if(col!=null)Object.DestroyImmediate(col);if(c==0)o.AddComponent&lt;SphereCollider&gt;();else o.AddComponent&lt;CapsuleCollider&gt;();var sh=Shader.Find(\"Universal Render Pipeline/Lit\");if(sh==null){Debug.LogError(\"Shader URP/Lit no encontrado.\");return;}var m=new Material(sh);m.color=n==\"SCerevisiae\"?new Color(0,0,1,1):n==\"EColi\"?new Color(0,1,0,1):Color.white;AssetDatabase.CreateAsset(m,Path.Combine(mF,n+\".mat\"));AssetDatabase.SaveAssets();AssetDatabase.Refresh();o.GetComponent&lt;Renderer&gt;().sharedMaterial=m;PrefabUtility.SaveAsPrefabAsset(o,Path.Combine(pF,n+\".prefab\"));Object.DestroyImmediate(o);}}}2.CreatePrefabsOnClick.cs{private void CrearEntidad(Vector3 p){if(currentPrefabIndex&gt;=prefabs.Count)return;var sQ=spawnerQuery.ToEntityArray(Allocator.Temp);if(currentPrefabIndex&gt;=sQ.Length){Debug.LogError($\"No se encontró spawner en índice {currentPrefabIndex}\");sQ.Dispose();return;}Entity s=sQ[currentPrefabIndex];sQ.Dispose();Entity pe=entityManager.GetComponentData&lt;PrefabEntityComponent&gt;(s).prefab;Entity e=entityManager.Instantiate(pe);float os=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Scale;quaternion or=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Rotation;float ry=UnityEngine.Random.Range(0f,360f);quaternion nr=math.mul(or,quaternion.RotateY(math.radians(ry)));float h=os*.5f;float3 ap=new float3(p.x,math.max(p.y+h,h),p.z);entityManager.SetComponentData(e,new LocalTransform{Position=ap,Rotation=nr,Scale=os});string n=prefabs[currentPrefabIndex].name;switch(n){case\"EColi\":entityManager.AddComponentData(e,new EColiComponent{TimeReference=1200f,SeparationThreshold=0.7f,MaxScale=1f,GrowthTime=0f,GrowthDuration=1200f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=1200f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;case\"SCerevisiae\":entityManager.AddComponentData(e,new SCerevisiaeComponent{TimeReference=5400f,SeparationThreshold=0.7f,MaxScale=5f,GrowthTime=0f,GrowthDuration=5400f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=5400f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;default:Debug.LogWarning($\"No hay componente ECS para '{n}'\");break;}AddPhysicsComponents(e,n,os);Debug.Log($\"Entidad '{n}' creada en {ap}\");}private void AddPhysicsComponents(Entity e,string n,float s){BlobAssetReference&lt;Unity.Physics.Collider&gt;c=default;Material m=new Material{Friction=8f,Restitution=0f};switch(n){case\"EColi\":c=Unity.Physics.CapsuleCollider.Create(new CapsuleGeometry{Vertex0=new float3(0,-s,0),Vertex1=new float3(0,s,0),Radius=0.25f},CollisionFilter.Default,m);break;case\"SCerevisiae\":c=Unity.Physics.SphereCollider.Create(new SphereGeometry{Center=float3.zero,Radius=s*0.1f},CollisionFilter.Default,m);break;default:Debug.LogWarning($\"No collider para '{n}'\");return;}entityManager.AddComponentData(e,new PhysicsCollider{Value=c});if(c.IsCreated){var mp=c.Value.MassProperties;entityManager.AddComponentData(e,PhysicsMass.CreateDynamic(mp,1f));}entityManager.AddComponentData(e,new PhysicsVelocity{Linear=float3.zero,Angular=float3.zero});entityManager.AddComponentData(e,new PhysicsGravityFactor{Value=1f});entityManager.AddComponentData(e,new PhysicsDamping{Linear=0f,Angular=50f});Debug.Log($\"Física añadida a '{n}' (fricción alta, damping angular)\");}}3.EColiComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct EColiComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;}}4.SCerevisiaeComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct SCerevisiaeComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;public float3 GrowthDirection;}}5.EColiSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*12345);int s=rng.NextFloat()&lt;0.5f?1:-1;Entity c=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;EColiComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.HasGeneratedChild=false;cd.Parent=entity;cd.IsInitialCell=false;cd.SeparationSign=s;float3 u=math.mul(transform.Rotation,new float3(0,s,0));ct.Position=transform.Position+u*(transform.Scale*0.25f);ecb.SetComponent(entityInQueryIndex,c,ct);ecb.SetComponent(entityInQueryIndex,c,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float off=math.lerp(0f,pd.Scale*4.9f,transform.Scale/maxScale);float3 u=math.mul(pd.Rotation,new float3(0,organism.SeparationSign,0));transform.Position=pd.Position+u*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}6.SCerevisiaeSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*99999);float angle=rng.NextFloat(0f,math.PI*2f);float3 rnd=new float3(math.cos(angle),math.sin(angle),0f);Entity child=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;SCerevisiaeComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.IsInitialCell=false;cd.Parent=entity;cd.GrowthDirection=rnd;ct.Position=transform.Position;ecb.SetComponent(entityInQueryIndex,child,ct);ecb.SetComponent(entityInQueryIndex,child,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float r=math.clamp(transform.Scale/(organism.SeparationThreshold*maxScale),0f,1f);float off=(pd.Scale*0.5f)*r;float3 wd=math.mul(pd.Rotation,organism.GrowthDirection);transform.Position=pd.Position+wd*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
   </si>
 </sst>
 </file>
@@ -177,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0;[Red]&quot;$&quot;\-#,##0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000;[Red]&quot;$&quot;\-#,##0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +225,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,12 +248,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -232,11 +286,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6976085A-B9FC-4CD1-931F-2113AEA9B965}">
   <dimension ref="B3:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -960,17 +1024,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -979,152 +1043,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CA53A1-47B7-429F-9C43-38596D6DD712}">
-  <dimension ref="D5:G18"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11" style="7"/>
+    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="7"/>
+    <col min="7" max="7" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="7"/>
+    <col min="10" max="10" width="18.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7">
-      <c r="D5" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="4:7">
-      <c r="D6" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="4:7">
-      <c r="D7">
+      <c r="D3" s="10"/>
+      <c r="H3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8">
         <v>439</v>
       </c>
-      <c r="E7">
+      <c r="B4" s="8">
         <v>79</v>
       </c>
-      <c r="F7">
+      <c r="C4" s="8">
+        <f>B14</f>
         <v>2630</v>
       </c>
-      <c r="G7">
-        <f>SUM(D7:F7)</f>
+      <c r="D4" s="8">
+        <f>SUM(A4:C4)</f>
         <v>3148</v>
       </c>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="D10" t="s">
+      <c r="H4" s="8">
+        <v>387</v>
+      </c>
+      <c r="I4" s="8">
+        <v>79</v>
+      </c>
+      <c r="J4" s="8">
+        <f>I14</f>
+        <v>2047</v>
+      </c>
+      <c r="K4" s="8">
+        <f>SUM(H4:J4)</f>
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="4:7">
-      <c r="D11" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="4:7">
-      <c r="D12" t="s">
+      <c r="C7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12">
+      <c r="B8" s="8">
         <v>616</v>
       </c>
-      <c r="F12" s="9">
-        <f>E12/$E$18</f>
+      <c r="C8" s="9">
+        <f>B8/$B$14</f>
         <v>0.23422053231939163</v>
       </c>
-    </row>
-    <row r="13" spans="4:7">
-      <c r="D13" t="s">
+      <c r="H8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="8">
+        <v>461</v>
+      </c>
+      <c r="J8" s="9">
+        <f>I8/$I$14</f>
+        <v>0.22520762090864679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13">
+      <c r="B9" s="8">
         <v>843</v>
       </c>
-      <c r="F13" s="9">
-        <f>E13/$E$18</f>
+      <c r="C9" s="9">
+        <f>B9/$B$14</f>
         <v>0.32053231939163496</v>
       </c>
-    </row>
-    <row r="14" spans="4:7">
-      <c r="D14" t="s">
+      <c r="H9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="8">
+        <v>757</v>
+      </c>
+      <c r="J9" s="9">
+        <f>I9/$I$14</f>
+        <v>0.36980947728383001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14">
+      <c r="B10" s="8">
         <v>87</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F13:F17" si="0">E14/$E$18</f>
+      <c r="C10" s="9">
+        <f>B10/$B$14</f>
         <v>3.3079847908745248E-2</v>
       </c>
-    </row>
-    <row r="15" spans="4:7">
-      <c r="D15" t="s">
+      <c r="H10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8">
+        <v>74</v>
+      </c>
+      <c r="J10" s="9">
+        <f>I10/$I$14</f>
+        <v>3.6150464093795798E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E15">
+      <c r="B11" s="8">
         <v>95</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
+      <c r="C11" s="9">
+        <f>B11/$B$14</f>
         <v>3.6121673003802278E-2</v>
       </c>
-    </row>
-    <row r="16" spans="4:7">
-      <c r="D16" t="s">
+      <c r="H11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="8">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9">
+        <f>I11/$I$14</f>
+        <v>4.0058622374206154E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16">
+      <c r="B12" s="8">
         <v>498</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
+      <c r="C12" s="9">
+        <f>B12/$B$14</f>
         <v>0.18935361216730037</v>
       </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" t="s">
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="8">
+        <v>339</v>
+      </c>
+      <c r="J12" s="9">
+        <f>I12/$I$14</f>
+        <v>0.16560820713238886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17">
+      <c r="B13" s="8">
         <v>491</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
+      <c r="C13" s="9">
+        <f>B13/$B$14</f>
         <v>0.18669201520912548</v>
       </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="E18">
-        <f>SUM(E12:E17)</f>
+      <c r="H13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="8">
+        <v>334</v>
+      </c>
+      <c r="J13" s="9">
+        <f>I13/$I$14</f>
+        <v>0.16316560820713238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="8">
+        <f>SUM(B8:B13)</f>
         <v>2630</v>
       </c>
+      <c r="C14" s="9">
+        <f>B14/$B$14</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="8">
+        <f>SUM(I8:I13)</f>
+        <v>2047</v>
+      </c>
+      <c r="J14" s="9">
+        <f>I14/$I$14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" ht="15">
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G5:G6"/>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D3233A-12AB-40B8-BF81-2E2364588756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FAE153-8875-449E-ACAB-F0E511A51246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{21FFF4A9-BEE3-4716-82C1-DB13693BAF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FFF4A9-BEE3-4716-82C1-DB13693BAF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="FINE-TUNING" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>MODELO</t>
   </si>
@@ -171,34 +171,37 @@
     <t>NUEVO DESGLOSE RESPUESTA ASSISTANT</t>
   </si>
   <si>
-    <t>1.PrefabMaterialCreator.cs{public static class PrefabMaterialCreator{const string pF=\"Assets/Resources/Prefabs\",mF=\"Assets/Resources/PrefabsMaterials\";[MenuItem(\"Tools/Crear Prefabs y Materiales\")]public static void CreatePrefabsAndMaterials(){if(!AssetDatabase.IsValidFolder(pF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"Prefabs\");Debug.Log(\"Carpeta creada: \"+pF);}if(!AssetDatabase.IsValidFolder(mF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"PrefabsMaterials\");Debug.Log(\"Carpeta creada: \"+mF);}CPAM(\"SCerevisiae\",PrimitiveType.Sphere,new Vector3(5,5,5),new Vector3(90,0,0),0);CPAM(\"EColi\",PrimitiveType.Capsule,new Vector3(.5f,2,0.5f),new Vector3(90,0,0),1);AssetDatabase.SaveAssets();AssetDatabase.Refresh();Debug.Log(\"Prefabs y materiales creados.\");}static void CPAM(string n,PrimitiveType t,Vector3 s,Vector3 r,int c){var o=GameObject.CreatePrimitive(t);o.name=n;o.transform.rotation=Quaternion.Euler(r);o.transform.localScale=s;var col=o.GetComponent&lt;Collider&gt;();if(col!=null)Object.DestroyImmediate(col);if(c==0)o.AddComponent&lt;SphereCollider&gt;();else o.AddComponent&lt;CapsuleCollider&gt;();var sh=Shader.Find(\"Universal Render Pipeline/Lit\");if(sh==null){Debug.LogError(\"Shader URP/Lit no encontrado.\");return;}var m=new Material(sh);m.color=n==\"SCerevisiae\"?new Color(0,0,1,1):n==\"EColi\"?new Color(0,1,0,1):Color.white;AssetDatabase.CreateAsset(m,Path.Combine(mF,n+\".mat\"));AssetDatabase.SaveAssets();AssetDatabase.Refresh();o.GetComponent&lt;Renderer&gt;().sharedMaterial=m;PrefabUtility.SaveAsPrefabAsset(o,Path.Combine(pF,n+\".prefab\"));Object.DestroyImmediate(o);}}}</t>
-  </si>
-  <si>
-    <t>2.CreatePrefabsOnClick.cs{private void CrearEntidad(Vector3 p){if(currentPrefabIndex&gt;=prefabs.Count)return;var sQ=spawnerQuery.ToEntityArray(Allocator.Temp);if(currentPrefabIndex&gt;=sQ.Length){Debug.LogError($\"No se encontró spawner en índice {currentPrefabIndex}\");sQ.Dispose();return;}Entity s=sQ[currentPrefabIndex];sQ.Dispose();Entity pe=entityManager.GetComponentData&lt;PrefabEntityComponent&gt;(s).prefab;Entity e=entityManager.Instantiate(pe);float os=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Scale;quaternion or=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Rotation;float ry=UnityEngine.Random.Range(0f,360f);quaternion nr=math.mul(or,quaternion.RotateY(math.radians(ry)));float h=os*.5f;float3 ap=new float3(p.x,math.max(p.y+h,h),p.z);entityManager.SetComponentData(e,new LocalTransform{Position=ap,Rotation=nr,Scale=os});string n=prefabs[currentPrefabIndex].name;switch(n){case\"EColi\":entityManager.AddComponentData(e,new EColiComponent{TimeReference=1200f,SeparationThreshold=0.7f,MaxScale=1f,GrowthTime=0f,GrowthDuration=1200f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=1200f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;case\"SCerevisiae\":entityManager.AddComponentData(e,new SCerevisiaeComponent{TimeReference=5400f,SeparationThreshold=0.7f,MaxScale=5f,GrowthTime=0f,GrowthDuration=5400f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=5400f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;default:Debug.LogWarning($\"No hay componente ECS para '{n}'\");break;}AddPhysicsComponents(e,n,os);Debug.Log($\"Entidad '{n}' creada en {ap}\");}private void AddPhysicsComponents(Entity e,string n,float s){BlobAssetReference&lt;Unity.Physics.Collider&gt;c=default;Material m=new Material{Friction=8f,Restitution=0f};switch(n){case\"EColi\":c=Unity.Physics.CapsuleCollider.Create(new CapsuleGeometry{Vertex0=new float3(0,-s,0),Vertex1=new float3(0,s,0),Radius=0.25f},CollisionFilter.Default,m);break;case\"SCerevisiae\":c=Unity.Physics.SphereCollider.Create(new SphereGeometry{Center=float3.zero,Radius=s*0.1f},CollisionFilter.Default,m);break;default:Debug.LogWarning($\"No collider para '{n}'\");return;}entityManager.AddComponentData(e,new PhysicsCollider{Value=c});if(c.IsCreated){var mp=c.Value.MassProperties;entityManager.AddComponentData(e,PhysicsMass.CreateDynamic(mp,1f));}entityManager.AddComponentData(e,new PhysicsVelocity{Linear=float3.zero,Angular=float3.zero});entityManager.AddComponentData(e,new PhysicsGravityFactor{Value=1f});entityManager.AddComponentData(e,new PhysicsDamping{Linear=0f,Angular=50f});Debug.Log($\"Física añadida a '{n}' (fricción alta, damping angular)\");}}</t>
-  </si>
-  <si>
-    <t>3.EColiComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct EColiComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;}}</t>
-  </si>
-  <si>
-    <t>4.SCerevisiaeComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct SCerevisiaeComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;public float3 GrowthDirection;}}</t>
-  </si>
-  <si>
-    <t>5.EColiSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*12345);int s=rng.NextFloat()&lt;0.5f?1:-1;Entity c=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;EColiComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.HasGeneratedChild=false;cd.Parent=entity;cd.IsInitialCell=false;cd.SeparationSign=s;float3 u=math.mul(transform.Rotation,new float3(0,s,0));ct.Position=transform.Position+u*(transform.Scale*0.25f);ecb.SetComponent(entityInQueryIndex,c,ct);ecb.SetComponent(entityInQueryIndex,c,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float off=math.lerp(0f,pd.Scale*4.9f,transform.Scale/maxScale);float3 u=math.mul(pd.Rotation,new float3(0,organism.SeparationSign,0));transform.Position=pd.Position+u*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
-  </si>
-  <si>
-    <t>6.SCerevisiaeSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*99999);float angle=rng.NextFloat(0f,math.PI*2f);float3 rnd=new float3(math.cos(angle),math.sin(angle),0f);Entity child=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;SCerevisiaeComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.IsInitialCell=false;cd.Parent=entity;cd.GrowthDirection=rnd;ct.Position=transform.Position;ecb.SetComponent(entityInQueryIndex,child,ct);ecb.SetComponent(entityInQueryIndex,child,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float r=math.clamp(transform.Scale/(organism.SeparationThreshold*maxScale),0f,1f);float off=(pd.Scale*0.5f)*r;float3 wd=math.mul(pd.Rotation,organism.GrowthDirection);transform.Position=pd.Position+wd*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>Eres un modelo especializado en generar código C# para simulaciones de Unity. Considera que los tiempos son en segundos; además, los colores en Unity se expresan en valores RGB divididos en 255. Debes contestar tal cual como se te fue entrenado, sin agregar nada más de lo que se espera en C#. No puedes responder en ningún otro lenguaje de programación ni añadir comentarios o palabras innecesarias. Solo puedes responder a consultas relacionadas con simulaciones en Unity sobre e.coli, s.cerevisiae o ambas, donde se indiquen: - El color de la(s) célula(s). - El tiempo de duplicación en minutos. - El porcentaje de crecimiento para separarse del padre. Tu respuesta debe incluir estrictamente estos scripts en el orden especificado: - Si se piden ambas (e.coli y s.cerevisiae): 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.EColiComponent.cs, 4.SCerevisiaeComponent.cs, 5.EColiSystem.cs, 6.SCerevisiaeSystem.cs. - Si se pide solo e.coli: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.EColiComponent.cs, 4.EColiSystem.cs. - Si se pide solo s.cerevisiae: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.SCerevisiaeComponent.cs, 4.SCerevisiaeSystem.cs. El formato de cada script debe ser \"1.PrefabMaterialCreator.cs{...}2.CreatePrefabsOnClick.cs{...}\" etc. Cualquier pregunta que no cumpla con las características anteriores será respondida con: \"ERROR FORMATO DE PREGUNTA.\" Y recuerda, responde tal cual como se te entrenó.</t>
-  </si>
-  <si>
-    <t>1.PrefabMaterialCreator.cs{public static class PrefabMaterialCreator{const string pF=\"Assets/Resources/Prefabs\",mF=\"Assets/Resources/PrefabsMaterials\";[MenuItem(\"Tools/Crear Prefabs y Materiales\")]public static void CreatePrefabsAndMaterials(){if(!AssetDatabase.IsValidFolder(pF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"Prefabs\");Debug.Log(\"Carpeta creada: \"+pF);}if(!AssetDatabase.IsValidFolder(mF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"PrefabsMaterials\");Debug.Log(\"Carpeta creada: \"+mF);}CPAM(\"SCerevisiae\",PrimitiveType.Sphere,new Vector3(5,5,5),new Vector3(90,0,0),0);CPAM(\"EColi\",PrimitiveType.Capsule,new Vector3(.5f,2,0.5f),new Vector3(90,0,0),1);AssetDatabase.SaveAssets();AssetDatabase.Refresh();Debug.Log(\"Prefabs y materiales creados.\");}static void CPAM(string n,PrimitiveType t,Vector3 s,Vector3 r,int c){var o=GameObject.CreatePrimitive(t);o.name=n;o.transform.rotation=Quaternion.Euler(r);o.transform.localScale=s;var col=o.GetComponent&lt;Collider&gt;();if(col!=null)Object.DestroyImmediate(col);if(c==0)o.AddComponent&lt;SphereCollider&gt;();else o.AddComponent&lt;CapsuleCollider&gt;();var sh=Shader.Find(\"Universal Render Pipeline/Lit\");if(sh==null){Debug.LogError(\"Shader URP/Lit no encontrado.\");return;}var m=new Material(sh);m.color=n==\"SCerevisiae\"?new Color(0,0,1,1):n==\"EColi\"?new Color(0,1,0,1):Color.white;AssetDatabase.CreateAsset(m,Path.Combine(mF,n+\".mat\"));AssetDatabase.SaveAssets();AssetDatabase.Refresh();o.GetComponent&lt;Renderer&gt;().sharedMaterial=m;PrefabUtility.SaveAsPrefabAsset(o,Path.Combine(pF,n+\".prefab\"));Object.DestroyImmediate(o);}}}2.CreatePrefabsOnClick.cs{private void CrearEntidad(Vector3 p){if(currentPrefabIndex&gt;=prefabs.Count)return;var sQ=spawnerQuery.ToEntityArray(Allocator.Temp);if(currentPrefabIndex&gt;=sQ.Length){Debug.LogError($\"No se encontró spawner en índice {currentPrefabIndex}\");sQ.Dispose();return;}Entity s=sQ[currentPrefabIndex];sQ.Dispose();Entity pe=entityManager.GetComponentData&lt;PrefabEntityComponent&gt;(s).prefab;Entity e=entityManager.Instantiate(pe);float os=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Scale;quaternion or=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Rotation;float ry=UnityEngine.Random.Range(0f,360f);quaternion nr=math.mul(or,quaternion.RotateY(math.radians(ry)));float h=os*.5f;float3 ap=new float3(p.x,math.max(p.y+h,h),p.z);entityManager.SetComponentData(e,new LocalTransform{Position=ap,Rotation=nr,Scale=os});string n=prefabs[currentPrefabIndex].name;switch(n){case\"EColi\":entityManager.AddComponentData(e,new EColiComponent{TimeReference=1200f,SeparationThreshold=0.7f,MaxScale=1f,GrowthTime=0f,GrowthDuration=1200f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=1200f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;case\"SCerevisiae\":entityManager.AddComponentData(e,new SCerevisiaeComponent{TimeReference=5400f,SeparationThreshold=0.7f,MaxScale=5f,GrowthTime=0f,GrowthDuration=5400f*0.7f,TimeSinceLastDivision=0f,DivisionInterval=5400f*0.7f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;default:Debug.LogWarning($\"No hay componente ECS para '{n}'\");break;}AddPhysicsComponents(e,n,os);Debug.Log($\"Entidad '{n}' creada en {ap}\");}private void AddPhysicsComponents(Entity e,string n,float s){BlobAssetReference&lt;Unity.Physics.Collider&gt;c=default;Material m=new Material{Friction=8f,Restitution=0f};switch(n){case\"EColi\":c=Unity.Physics.CapsuleCollider.Create(new CapsuleGeometry{Vertex0=new float3(0,-s,0),Vertex1=new float3(0,s,0),Radius=0.25f},CollisionFilter.Default,m);break;case\"SCerevisiae\":c=Unity.Physics.SphereCollider.Create(new SphereGeometry{Center=float3.zero,Radius=s*0.1f},CollisionFilter.Default,m);break;default:Debug.LogWarning($\"No collider para '{n}'\");return;}entityManager.AddComponentData(e,new PhysicsCollider{Value=c});if(c.IsCreated){var mp=c.Value.MassProperties;entityManager.AddComponentData(e,PhysicsMass.CreateDynamic(mp,1f));}entityManager.AddComponentData(e,new PhysicsVelocity{Linear=float3.zero,Angular=float3.zero});entityManager.AddComponentData(e,new PhysicsGravityFactor{Value=1f});entityManager.AddComponentData(e,new PhysicsDamping{Linear=0f,Angular=50f});Debug.Log($\"Física añadida a '{n}' (fricción alta, damping angular)\");}}3.EColiComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct EColiComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;}}4.SCerevisiaeComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct SCerevisiaeComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell;public Entity Parent;public int SeparationSign;public float3 GrowthDirection;}}5.EColiSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*12345);int s=rng.NextFloat()&lt;0.5f?1:-1;Entity c=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;EColiComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.HasGeneratedChild=false;cd.Parent=entity;cd.IsInitialCell=false;cd.SeparationSign=s;float3 u=math.mul(transform.Rotation,new float3(0,s,0));ct.Position=transform.Position+u*(transform.Scale*0.25f);ecb.SetComponent(entityInQueryIndex,c,ct);ecb.SetComponent(entityInQueryIndex,c,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float off=math.lerp(0f,pd.Scale*4.9f,transform.Scale/maxScale);float3 u=math.mul(pd.Rotation,new float3(0,organism.SeparationSign,0));transform.Position=pd.Position+u*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}6.SCerevisiaeSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*99999);float angle=rng.NextFloat(0f,math.PI*2f);float3 rnd=new float3(math.cos(angle),math.sin(angle),0f);Entity child=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;SCerevisiaeComponent cd=organism;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.IsInitialCell=false;cd.Parent=entity;cd.GrowthDirection=rnd;ct.Position=transform.Position;ecb.SetComponent(entityInQueryIndex,child,ct);ecb.SetComponent(entityInQueryIndex,child,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float r=math.clamp(transform.Scale/(organism.SeparationThreshold*maxScale),0f,1f);float off=(pd.Scale*0.5f)*r;float3 wd=math.mul(pd.Rotation,organism.GrowthDirection);transform.Position=pd.Position+wd*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
+    <t>Eres un modelo especializado en generar código C# para simulaciones de Unity. Considera que los tiempos son en segundos; además, los colores en Unity se expresan en valores RGB divididos en 255. Debes contestar tal cual como se te fue entrenado, sin agregar nada más de lo que se espera en C#. No puedes responder en ningún otro lenguaje de programación ni añadir comentarios o palabras innecesarias. Solo puedes responder a consultas relacionadas con simulaciones en Unity sobre EColi, SCerevisiae o ambas, donde se indiquen: - El color de la(s) célula(s). - El tiempo de duplicación en minutos. - El porcentaje de crecimiento para separarse del padre. Tu respuesta debe incluir estrictamente estos scripts en el orden especificado: - Si se piden ambas (EColi y SCerevisiae): 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.EColiComponent.cs, 4.SCerevisiaeComponent.cs, 5.EColiSystem.cs, 6.SCerevisiaeSystem.cs. - Si se pide solo EColi: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.EColiComponent.cs, 4.EColiSystem.cs. - Si se pide solo SCerevisiae: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.SCerevisiaeComponent.cs, 4.SCerevisiaeSystem.cs - Si se pide 2 EColi: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.EColi_1Component.cs, 4.EColi_2Component.cs, 5.EColi_1System.cs, 6.EColi_2System.cs. - Si se pide 2 SCerevisiae: 1.PrefabMaterialCreator.cs, 2.CreatePrefabsOnClick.cs, 3.SCerevisiae_1Component.cs, 4.SCerevisiae_2Component.cs, 5.SCerevisiae_1System.cs, 6.SCerevisiae_2System.cs. El formato de cada script debe ser \"1.PrefabMaterialCreator.cs{...}2.CreatePrefabsOnClick.cs{...}\" etc. Cualquier pregunta que no cumpla con las características anteriores será respondida con: \"ERROR FORMATO DE PREGUNTA.\".</t>
+  </si>
+  <si>
+    <t>1.PrefabMaterialCreator.cs{public static class PrefabMaterialCreator{const string pF=\"Assets/Resources/Prefabs\",mF=\"Assets/Resources/PrefabsMaterials\";[MenuItem(\"Tools/Crear Prefabs y Materiales\")]public static void CreatePrefabsAndMaterials(){if(!AssetDatabase.IsValidFolder(pF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"Prefabs\");Debug.Log(\"Carpeta creada: \"+pF);}if(!AssetDatabase.IsValidFolder(mF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"PrefabsMaterials\");Debug.Log(\"Carpeta creada: \"+mF);}CPAM(\"SCerevisiae\",PrimitiveType.Sphere,new Vector3(5,5,5),new Vector3(90,0,0),0);CPAM(\"EColi\",PrimitiveType.Capsule,new Vector3(.5f,2,0.5f),new Vector3(90,0,0),1);AssetDatabase.SaveAssets();AssetDatabase.Refresh();Debug.Log(\"Prefabs y materiales creados.\");}static void CPAM(string n,PrimitiveType t,Vector3 s,Vector3 r,int c){var o=GameObject.CreatePrimitive(t);o.name=n;o.transform.rotation=Quaternion.Euler(r);o.transform.localScale=s;var col=o.GetComponent&lt;Collider&gt;();if(col!=null)Object.DestroyImmediate(col);if(c==0)o.AddComponent&lt;SphereCollider&gt;();else o.AddComponent&lt;CapsuleCollider&gt;();var sh=Shader.Find(\"Universal Render Pipeline/Lit\");if(sh==null){Debug.LogError(\"Shader URP/Lit no encontrado.\");return;}var m=new Material(sh);m.color=n==\"SCerevisiae\"?new Color(0.25f,0.88f,0.82f,1):n==\"EColi\"?new Color(0.5f,0,0.5f,1):Color.white;AssetDatabase.CreateAsset(m,Path.Combine(mF,n+\".mat\"));AssetDatabase.SaveAssets();AssetDatabase.Refresh();o.GetComponent&lt;Renderer&gt;().sharedMaterial=m;PrefabUtility.SaveAsPrefabAsset(o,Path.Combine(pF,n+\".prefab\"));Object.DestroyImmediate(o);}}}2.CreatePrefabsOnClick.cs{private void CrearEntidad(Vector3 p){if(currentPrefabIndex&gt;=prefabs.Count)return;var sQ=spawnerQuery.ToEntityArray(Allocator.Temp);if(currentPrefabIndex&gt;=sQ.Length){Debug.LogError($\"No se encontró spawner en índice {currentPrefabIndex}\");sQ.Dispose();return;}Entity s=sQ[currentPrefabIndex];sQ.Dispose();Entity pe=entityManager.GetComponentData&lt;PrefabEntityComponent&gt;(s).prefab;Entity e=entityManager.Instantiate(pe);float os=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Scale;quaternion or=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Rotation;float ry=UnityEngine.Random.Range(0f,360f);quaternion nr=math.mul(or,quaternion.RotateY(math.radians(ry)));float h=os*.5f;float3 ap=new float3(p.x,math.max(p.y+h,h),p.z);entityManager.SetComponentData(e,new LocalTransform{Position=ap,Rotation=nr,Scale=os});string n=prefabs[currentPrefabIndex].name;switch(n){case \"EColi\":entityManager.AddComponentData(e,new EColiComponent{TimeReference=1080f,SeparationThreshold=0.65f,MaxScale=1f,GrowthTime=0f,GrowthDuration=1080f*0.65f,TimeSinceLastDivision=0f,DivisionInterval=1080f*0.65f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;case \"SCerevisiae\":entityManager.AddComponentData(e,new SCerevisiaeComponent{TimeReference=2700f,SeparationThreshold=0.75f,MaxScale=5f,GrowthTime=0f,GrowthDuration=2700f*0.75f,TimeSinceLastDivision=0f,DivisionInterval=2700f*0.75f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;default:Debug.LogWarning($\"No hay componente ECS para '{n}'\");break;}AddPhysicsComponents(e,n,os);Debug.Log($\"Entidad '{n}' creada en {ap}\");}private void AddPhysicsComponents(Entity e,string n,float s){BlobAssetReference&lt;Unity.Physics.Collider&gt; c=default;Material m=new Material{Friction=8f,Restitution=0f};switch(n){case \"EColi\":c=Unity.Physics.CapsuleCollider.Create(new CapsuleGeometry{Vertex0=new float3(0,-s,0),Vertex1=new float3(0,s,0),Radius=0.25f},CollisionFilter.Default,m);break;case \"SCerevisiae\":c=Unity.Physics.SphereCollider.Create(new SphereGeometry{Center=float3.zero,Radius=s*0.1f},CollisionFilter.Default,m);break;default:Debug.LogWarning($\"No collider para '{n}'\");return;}entityManager.AddComponentData(e,new PhysicsCollider{Value=c});if(c.IsCreated){var mp=c.Value.MassProperties;entityManager.AddComponentData(e,PhysicsMass.CreateDynamic(mp,1f));}entityManager.AddComponentData(e,new PhysicsVelocity{Linear=float3.zero,Angular=float3.zero});entityManager.AddComponentData(e,new PhysicsGravityFactor{Value=1f});entityManager.AddComponentData(e,new PhysicsDamping{Linear=0f,Angular=50f});Debug.Log($\"Física añadida a '{n}' (fricción alta, damping angular)\");}}3.EColiComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct EColiComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell,TimeReferenceInitialized;public Entity Parent;public int SeparationSign;}}4.SCerevisiaeComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct SCerevisiaeComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell,TimeReferenceInitialized;public Entity Parent;public int SeparationSign;public float3 GrowthDirection;}}5.EColiSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*12345);int s=rng.NextFloat()&lt;0.5f?1:-1;Entity c=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;EColiComponent cd=organism;cd.TimeReferenceInitialized = false;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.HasGeneratedChild=false;cd.Parent=entity;cd.IsInitialCell=false;cd.SeparationSign=s;float3 u=math.mul(transform.Rotation,new float3(0,s,0));ct.Position=transform.Position+u*(transform.Scale*0.25f);ecb.SetComponent(entityInQueryIndex,c,ct);ecb.SetComponent(entityInQueryIndex,c,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float off=math.lerp(0f,pd.Scale*4.9f,transform.Scale/maxScale);float3 u=math.mul(pd.Rotation,new float3(0,organism.SeparationSign,0));transform.Position=pd.Position+u*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}6.SCerevisiaeSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*99999);float angle=rng.NextFloat(0f,math.PI*2f);float3 rnd=new float3(math.cos(angle),math.sin(angle),0f);Entity child=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;SCerevisiaeComponent cd=organism;cd.TimeReferenceInitialized = false;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.IsInitialCell=false;cd.Parent=entity;cd.GrowthDirection=rnd;ct.Position=transform.Position;ecb.SetComponent(entityInQueryIndex,child,ct);ecb.SetComponent(entityInQueryIndex,child,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float r=math.clamp(transform.Scale/(organism.SeparationThreshold*maxScale),0f,1f);float off=(pd.Scale*0.5f)*r;float3 wd=math.mul(pd.Rotation,organism.GrowthDirection);transform.Position=pd.Position+wd*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
+  </si>
+  <si>
+    <t>1.PrefabMaterialCreator.cs{public static class PrefabMaterialCreator{const string pF=\"Assets/Resources/Prefabs\",mF=\"Assets/Resources/PrefabsMaterials\";[MenuItem(\"Tools/Crear Prefabs y Materiales\")]public static void CreatePrefabsAndMaterials(){if(!AssetDatabase.IsValidFolder(pF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"Prefabs\");Debug.Log(\"Carpeta creada: \"+pF);}if(!AssetDatabase.IsValidFolder(mF)){AssetDatabase.CreateFolder(\"Assets/Resources\",\"PrefabsMaterials\");Debug.Log(\"Carpeta creada: \"+mF);}CPAM(\"SCerevisiae\",PrimitiveType.Sphere,new Vector3(5,5,5),new Vector3(90,0,0),0);CPAM(\"EColi\",PrimitiveType.Capsule,new Vector3(.5f,2,0.5f),new Vector3(90,0,0),1);AssetDatabase.SaveAssets();AssetDatabase.Refresh();Debug.Log(\"Prefabs y materiales creados.\");}static void CPAM(string n,PrimitiveType t,Vector3 s,Vector3 r,int c){var o=GameObject.CreatePrimitive(t);o.name=n;o.transform.rotation=Quaternion.Euler(r);o.transform.localScale=s;var col=o.GetComponent&lt;Collider&gt;();if(col!=null)Object.DestroyImmediate(col);if(c==0)o.AddComponent&lt;SphereCollider&gt;();else o.AddComponent&lt;CapsuleCollider&gt;();var sh=Shader.Find(\"Universal Render Pipeline/Lit\");if(sh==null){Debug.LogError(\"Shader URP/Lit no encontrado.\");return;}var m=new Material(sh);m.color=n==\"SCerevisiae\"?new Color(0.25f,0.88f,0.82f,1):n==\"EColi\"?new Color(0.5f,0,0.5f,1):Color.white;AssetDatabase.CreateAsset(m,Path.Combine(mF,n+\".mat\"));AssetDatabase.SaveAssets();AssetDatabase.Refresh();o.GetComponent&lt;Renderer&gt;().sharedMaterial=m;PrefabUtility.SaveAsPrefabAsset(o,Path.Combine(pF,n+\".prefab\"));Object.DestroyImmediate(o);}}}</t>
+  </si>
+  <si>
+    <t>2.CreatePrefabsOnClick.cs{private void CrearEntidad(Vector3 p){if(currentPrefabIndex&gt;=prefabs.Count)return;var sQ=spawnerQuery.ToEntityArray(Allocator.Temp);if(currentPrefabIndex&gt;=sQ.Length){Debug.LogError($\"No se encontró spawner en índice {currentPrefabIndex}\");sQ.Dispose();return;}Entity s=sQ[currentPrefabIndex];sQ.Dispose();Entity pe=entityManager.GetComponentData&lt;PrefabEntityComponent&gt;(s).prefab;Entity e=entityManager.Instantiate(pe);float os=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Scale;quaternion or=entityManager.GetComponentData&lt;LocalTransform&gt;(pe).Rotation;float ry=UnityEngine.Random.Range(0f,360f);quaternion nr=math.mul(or,quaternion.RotateY(math.radians(ry)));float h=os*.5f;float3 ap=new float3(p.x,math.max(p.y+h,h),p.z);entityManager.SetComponentData(e,new LocalTransform{Position=ap,Rotation=nr,Scale=os});string n=prefabs[currentPrefabIndex].name;switch(n){case \"EColi\":entityManager.AddComponentData(e,new EColiComponent{TimeReference=1080f,SeparationThreshold=0.65f,MaxScale=1f,GrowthTime=0f,GrowthDuration=1080f*0.65f,TimeSinceLastDivision=0f,DivisionInterval=1080f*0.65f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;case \"SCerevisiae\":entityManager.AddComponentData(e,new SCerevisiaeComponent{TimeReference=2700f,SeparationThreshold=0.75f,MaxScale=5f,GrowthTime=0f,GrowthDuration=2700f*0.75f,TimeSinceLastDivision=0f,DivisionInterval=2700f*0.75f,HasGeneratedChild=false,Parent=Entity.Null,IsInitialCell=true,SeparationSign=0});break;default:Debug.LogWarning($\"No hay componente ECS para '{n}'\");break;}AddPhysicsComponents(e,n,os);Debug.Log($\"Entidad '{n}' creada en {ap}\");}private void AddPhysicsComponents(Entity e,string n,float s){BlobAssetReference&lt;Unity.Physics.Collider&gt; c=default;Material m=new Material{Friction=8f,Restitution=0f};switch(n){case \"EColi\":c=Unity.Physics.CapsuleCollider.Create(new CapsuleGeometry{Vertex0=new float3(0,-s,0),Vertex1=new float3(0,s,0),Radius=0.25f},CollisionFilter.Default,m);break;case \"SCerevisiae\":c=Unity.Physics.SphereCollider.Create(new SphereGeometry{Center=float3.zero,Radius=s*0.1f},CollisionFilter.Default,m);break;default:Debug.LogWarning($\"No collider para '{n}'\");return;}entityManager.AddComponentData(e,new PhysicsCollider{Value=c});if(c.IsCreated){var mp=c.Value.MassProperties;entityManager.AddComponentData(e,PhysicsMass.CreateDynamic(mp,1f));}entityManager.AddComponentData(e,new PhysicsVelocity{Linear=float3.zero,Angular=float3.zero});entityManager.AddComponentData(e,new PhysicsGravityFactor{Value=1f});entityManager.AddComponentData(e,new PhysicsDamping{Linear=0f,Angular=50f});Debug.Log($\"Física añadida a '{n}' (fricción alta, damping angular)\");}}</t>
+  </si>
+  <si>
+    <t>3.EColiComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct EColiComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell,TimeReferenceInitialized;public Entity Parent;public int SeparationSign;}}</t>
+  </si>
+  <si>
+    <t>4.SCerevisiaeComponent.cs{using Unity.Entities;using Unity.Mathematics;public struct SCerevisiaeComponent:IComponentData{public float TimeReference,MaxScale,GrowthTime,GrowthDuration,TimeSinceLastDivision,DivisionInterval,SeparationThreshold;public bool HasGeneratedChild,IsInitialCell,TimeReferenceInitialized;public Entity Parent;public int SeparationSign;public float3 GrowthDirection;}}</t>
+  </si>
+  <si>
+    <t>6.SCerevisiaeSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*99999);float angle=rng.NextFloat(0f,math.PI*2f);float3 rnd=new float3(math.cos(angle),math.sin(angle),0f);Entity child=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;SCerevisiaeComponent cd=organism;cd.TimeReferenceInitialized = false;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.IsInitialCell=false;cd.Parent=entity;cd.GrowthDirection=rnd;ct.Position=transform.Position;ecb.SetComponent(entityInQueryIndex,child,ct);ecb.SetComponent(entityInQueryIndex,child,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float r=math.clamp(transform.Scale/(organism.SeparationThreshold*maxScale),0f,1f);float off=(pd.Scale*0.5f)*r;float3 wd=math.mul(pd.Rotation,organism.GrowthDirection);transform.Position=pd.Position+wd*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
+  </si>
+  <si>
+    <t>5.EColiSystem.cs{if(transform.Scale&gt;=maxScale){organism.TimeSinceLastDivision+=deltaTime;if(organism.TimeSinceLastDivision&gt;=organism.DivisionInterval){Unity.Mathematics.Random rng=new Unity.Mathematics.Random((uint)(entityInQueryIndex+1)*12345);int s=rng.NextFloat()&lt;0.5f?1:-1;Entity c=ecb.Instantiate(entityInQueryIndex,entity);LocalTransform ct=transform;ct.Scale=0.01f;EColiComponent cd=organism;cd.TimeReferenceInitialized = false;cd.GrowthTime=0f;cd.TimeSinceLastDivision=0f;cd.HasGeneratedChild=false;cd.Parent=entity;cd.IsInitialCell=false;cd.SeparationSign=s;float3 u=math.mul(transform.Rotation,new float3(0,s,0));ct.Position=transform.Position+u*(transform.Scale*0.25f);ecb.SetComponent(entityInQueryIndex,c,ct);ecb.SetComponent(entityInQueryIndex,c,cd);organism.TimeSinceLastDivision=0f;}}if(!organism.IsInitialCell&amp;&amp;organism.Parent!=Entity.Null&amp;&amp;parentMap.TryGetValue(organism.Parent,out ParentData pd)){if(transform.Scale&lt;organism.SeparationThreshold*maxScale){float off=math.lerp(0f,pd.Scale*4.9f,transform.Scale/maxScale);float3 u=math.mul(pd.Rotation,new float3(0,organism.SeparationSign,0));transform.Position=pd.Position+u*off;transform.Rotation=pd.Rotation;}else organism.Parent=Entity.Null;}}</t>
+  </si>
+  <si>
+    <t>*TODO CONSIDERANDO UNA LINEA DE JSONL PROMEDIO</t>
   </si>
 </sst>
 </file>
@@ -284,9 +287,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -295,10 +295,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,55 +641,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6976085A-B9FC-4CD1-931F-2113AEA9B965}">
   <dimension ref="B3:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -708,13 +711,13 @@
       <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:17" ht="28.5" customHeight="1">
       <c r="B5" s="1">
@@ -1024,17 +1027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1043,292 +1046,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CA53A1-47B7-429F-9C43-38596D6DD712}">
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11" style="7"/>
-    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="7"/>
-    <col min="7" max="7" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" style="7"/>
-    <col min="10" max="10" width="18.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="7"/>
+    <col min="1" max="3" width="11" style="6"/>
+    <col min="4" max="4" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="6"/>
+    <col min="7" max="7" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="6"/>
+    <col min="10" max="10" width="18.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="M2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="H3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="D3" s="11"/>
+      <c r="H3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="8">
+      <c r="J3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
         <v>439</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>79</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>B14</f>
         <v>2630</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>SUM(A4:C4)</f>
         <v>3148</v>
       </c>
-      <c r="H4" s="8">
-        <v>387</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H4" s="7">
+        <v>513</v>
+      </c>
+      <c r="I4" s="7">
         <v>79</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f>I14</f>
-        <v>2047</v>
-      </c>
-      <c r="K4" s="8">
+        <v>2093</v>
+      </c>
+      <c r="K4" s="7">
         <f>SUM(H4:J4)</f>
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7">
+        <v>616</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" ref="C8:C14" si="0">B8/$B$14</f>
+        <v>0.23422053231939163</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="7">
+        <v>476</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" ref="J8:J14" si="1">I8/$I$14</f>
+        <v>0.22742474916387959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7">
+        <v>843</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32053231939163496</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="7">
+        <v>766</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.36598184424271379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3079847908745248E-2</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="7">
+        <v>78</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>3.7267080745341616E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7">
+        <v>95</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6121673003802278E-2</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="8">
-        <v>616</v>
-      </c>
-      <c r="C8" s="9">
-        <f>B8/$B$14</f>
-        <v>0.23422053231939163</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="I11" s="7">
+        <v>86</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>4.1089345437171527E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7">
+        <v>498</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18935361216730037</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="7">
+        <v>346</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16531294792164358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7">
+        <v>491</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18669201520912548</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="7">
+        <v>341</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16292403248924989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="8">
-        <v>461</v>
-      </c>
-      <c r="J8" s="9">
-        <f>I8/$I$14</f>
-        <v>0.22520762090864679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="8">
-        <v>843</v>
-      </c>
-      <c r="C9" s="9">
-        <f>B9/$B$14</f>
-        <v>0.32053231939163496</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="8">
-        <v>757</v>
-      </c>
-      <c r="J9" s="9">
-        <f>I9/$I$14</f>
-        <v>0.36980947728383001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="8">
-        <v>87</v>
-      </c>
-      <c r="C10" s="9">
-        <f>B10/$B$14</f>
-        <v>3.3079847908745248E-2</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="8">
-        <v>74</v>
-      </c>
-      <c r="J10" s="9">
-        <f>I10/$I$14</f>
-        <v>3.6150464093795798E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8">
-        <v>95</v>
-      </c>
-      <c r="C11" s="9">
-        <f>B11/$B$14</f>
-        <v>3.6121673003802278E-2</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8">
-        <v>82</v>
-      </c>
-      <c r="J11" s="9">
-        <f>I11/$I$14</f>
-        <v>4.0058622374206154E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="8">
-        <v>498</v>
-      </c>
-      <c r="C12" s="9">
-        <f>B12/$B$14</f>
-        <v>0.18935361216730037</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="8">
-        <v>339</v>
-      </c>
-      <c r="J12" s="9">
-        <f>I12/$I$14</f>
-        <v>0.16560820713238886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="8">
-        <v>491</v>
-      </c>
-      <c r="C13" s="9">
-        <f>B13/$B$14</f>
-        <v>0.18669201520912548</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="8">
-        <v>334</v>
-      </c>
-      <c r="J13" s="9">
-        <f>I13/$I$14</f>
-        <v>0.16316560820713238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f>SUM(B8:B13)</f>
         <v>2630</v>
       </c>
-      <c r="C14" s="9">
-        <f>B14/$B$14</f>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
         <f>SUM(I8:I13)</f>
-        <v>2047</v>
-      </c>
-      <c r="J14" s="9">
-        <f>I14/$I$14</f>
+        <v>2093</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="15">
-      <c r="D20" s="11"/>
+      <c r="D20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FAE153-8875-449E-ACAB-F0E511A51246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42F376-498A-48BD-8F8E-2B5488B0F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FFF4A9-BEE3-4716-82C1-DB13693BAF4B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>MODELO</t>
   </si>
@@ -60,15 +60,6 @@
     <t>CHECKPOINTS</t>
   </si>
   <si>
-    <t>STEP-80</t>
-  </si>
-  <si>
-    <t>STEP-90</t>
-  </si>
-  <si>
-    <t>STEP-100</t>
-  </si>
-  <si>
     <t>TRAINED TOKENS</t>
   </si>
   <si>
@@ -202,6 +193,33 @@
   </si>
   <si>
     <t>*TODO CONSIDERANDO UNA LINEA DE JSONL PROMEDIO</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv4:B346BIAP</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv4:B346B2Fp:ckpt-step-12</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv4:B346Az6s:ckpt-step-8</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv5:B34rzjN4:ckpt-step-70</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv5:B34rzxJo:ckpt-step-84</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv5:B34s0MaY</t>
   </si>
 </sst>
 </file>
@@ -213,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0;[Red]&quot;$&quot;\-#,##0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000;[Red]&quot;$&quot;\-#,##0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +251,14 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -301,9 +327,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,57 +672,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6976085A-B9FC-4CD1-931F-2113AEA9B965}">
-  <dimension ref="B3:Q11"/>
+  <dimension ref="B2:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:17">
-      <c r="B3" s="10" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="O3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="P3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="Q3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -703,28 +741,28 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="2:17" ht="28.5" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>0.3</v>
@@ -739,13 +777,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3">
         <v>372550</v>
@@ -767,16 +805,16 @@
         <v>1.11765</v>
       </c>
       <c r="Q5" s="5">
-        <f>P5*996</f>
-        <v>1113.1794</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="28.5" customHeight="1">
+        <f>P5*$Q$2</f>
+        <v>1052.8262999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>0.3</v>
@@ -791,13 +829,13 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3">
         <v>368950</v>
@@ -819,16 +857,16 @@
         <v>1.1068500000000001</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" ref="Q6:Q10" si="1">P6*996</f>
-        <v>1102.4226000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="28.5" customHeight="1">
+        <f t="shared" ref="Q6:Q10" si="1">P6*$Q$2</f>
+        <v>1042.6527000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>0.3</v>
@@ -843,13 +881,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3">
         <v>328050</v>
@@ -872,15 +910,15 @@
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="1"/>
-        <v>980.21340000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="28.5">
+        <v>927.06930000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>0.3</v>
@@ -894,35 +932,45 @@
       <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
+      <c r="H8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3">
+        <v>143632</v>
+      </c>
       <c r="L8" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1937114649</v>
+      </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43089600000000006</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="28.5">
+        <v>405.90403200000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>0.3</v>
@@ -936,35 +984,45 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1">
-        <v>10</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="H9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="3">
+        <v>251356</v>
+      </c>
+      <c r="L9" s="11">
+        <v>7</v>
+      </c>
+      <c r="M9" s="11">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="11">
         <v>1.8</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1">
+        <v>2044383751</v>
+      </c>
       <c r="P9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75406800000000007</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="28.5">
+        <v>710.33205600000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>0.3</v>
@@ -982,15 +1040,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="1">
-        <v>10</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1.8</v>
-      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="4">
         <f t="shared" si="0"/>
@@ -1001,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1018,12 +1070,15 @@
       <c r="O11" s="1"/>
       <c r="P11" s="4">
         <f>SUM(P5:P10)</f>
-        <v>3.20865</v>
+        <v>4.3936140000000004</v>
       </c>
       <c r="Q11" s="4">
         <f>SUM(Q5:Q10)</f>
-        <v>3195.8154</v>
-      </c>
+        <v>4138.784388</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1052,70 +1107,70 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11" style="6"/>
-    <col min="4" max="4" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" style="6"/>
-    <col min="7" max="7" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="6"/>
-    <col min="10" max="10" width="18.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="D3" s="13"/>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="H3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>45</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>439</v>
       </c>
@@ -1145,41 +1200,41 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7">
         <v>616</v>
@@ -1189,7 +1244,7 @@
         <v>0.23422053231939163</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
         <v>476</v>
@@ -1199,9 +1254,9 @@
         <v>0.22742474916387959</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="7">
         <v>843</v>
@@ -1211,7 +1266,7 @@
         <v>0.32053231939163496</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7">
         <v>766</v>
@@ -1221,9 +1276,9 @@
         <v>0.36598184424271379</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7">
         <v>87</v>
@@ -1233,7 +1288,7 @@
         <v>3.3079847908745248E-2</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7">
         <v>78</v>
@@ -1243,9 +1298,9 @@
         <v>3.7267080745341616E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7">
         <v>95</v>
@@ -1255,7 +1310,7 @@
         <v>3.6121673003802278E-2</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
         <v>86</v>
@@ -1265,9 +1320,9 @@
         <v>4.1089345437171527E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="7">
         <v>498</v>
@@ -1277,7 +1332,7 @@
         <v>0.18935361216730037</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
         <v>346</v>
@@ -1287,9 +1342,9 @@
         <v>0.16531294792164358</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7">
         <v>491</v>
@@ -1299,7 +1354,7 @@
         <v>0.18669201520912548</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
         <v>341</v>
@@ -1309,9 +1364,9 @@
         <v>0.16292403248924989</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="7">
         <f>SUM(B8:B13)</f>
@@ -1322,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
         <f>SUM(I8:I13)</f>
@@ -1333,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="15">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="9"/>
     </row>
   </sheetData>

--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42F376-498A-48BD-8F8E-2B5488B0F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321B440-9E18-4F11-9805-5B8568EFC216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FFF4A9-BEE3-4716-82C1-DB13693BAF4B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>MODELO</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv5:B34s0MaY</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv6:B4Y49YIK:ckpt-step-70</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv6:B4Y493eN:ckpt-step-84</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv6:B4Y4AFah</t>
   </si>
 </sst>
 </file>
@@ -297,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,10 +342,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +690,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,48 +701,48 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,13 +764,13 @@
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -1036,21 +1051,37 @@
       <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="H10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="3">
+        <v>250663</v>
+      </c>
+      <c r="L10" s="12">
+        <v>7</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="O10" s="1">
+        <v>191679768</v>
+      </c>
       <c r="P10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75198900000000002</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>708.37363800000003</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -1070,29 +1101,29 @@
       <c r="O11" s="1"/>
       <c r="P11" s="4">
         <f>SUM(P5:P10)</f>
-        <v>4.3936140000000004</v>
+        <v>5.1456030000000004</v>
       </c>
       <c r="Q11" s="4">
         <f>SUM(Q5:Q10)</f>
-        <v>4138.784388</v>
+        <v>4847.1580260000001</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="14"/>
+      <c r="L12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1129,7 +1160,7 @@
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1141,7 +1172,7 @@
       <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -1158,7 +1189,7 @@
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="15"/>
       <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1168,7 +1199,7 @@
       <c r="J3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">

--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321B440-9E18-4F11-9805-5B8568EFC216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B4AB3F-8444-4760-9BE5-B08B3A5C4C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FFF4A9-BEE3-4716-82C1-DB13693BAF4B}"/>
   </bookViews>
@@ -344,13 +344,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,59 +690,59 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="Q2">
-        <v>942</v>
+        <v>943.4</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,13 +764,13 @@
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -821,7 +821,7 @@
       </c>
       <c r="Q5" s="5">
         <f>P5*$Q$2</f>
-        <v>1052.8262999999999</v>
+        <v>1054.3910100000001</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
       <c r="Q6" s="5">
         <f t="shared" ref="Q6:Q10" si="1">P6*$Q$2</f>
-        <v>1042.6527000000001</v>
+        <v>1044.2022900000002</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="1"/>
-        <v>927.06930000000011</v>
+        <v>928.44711000000007</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="1"/>
-        <v>405.90403200000003</v>
+        <v>406.50728640000005</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="1"/>
-        <v>710.33205600000008</v>
+        <v>711.38775120000003</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" x14ac:dyDescent="0.25">
@@ -1051,13 +1051,13 @@
       <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="3">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="1"/>
-        <v>708.37363800000003</v>
+        <v>709.42642260000002</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="Q11" s="4">
         <f>SUM(Q5:Q10)</f>
-        <v>4847.1580260000001</v>
+        <v>4854.3618702000003</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -1113,17 +1113,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1172,7 +1172,7 @@
       <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -1189,7 +1189,7 @@
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="J3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">

--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B4AB3F-8444-4760-9BE5-B08B3A5C4C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9DBE2D-4BE8-409B-A0F3-676FBF8B613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21FFF4A9-BEE3-4716-82C1-DB13693BAF4B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>MODELO</t>
   </si>
@@ -229,6 +229,27 @@
   </si>
   <si>
     <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv6:B4Y4AFah</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-19</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-20</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-21</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-22</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv1:BFRU5gbw:ckpt-step-60</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv1:BFRU6bbH:ckpt-step-80</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv1:BFRU62Yy</t>
   </si>
 </sst>
 </file>
@@ -240,7 +261,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0;[Red]&quot;$&quot;\-#,##0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000;[Red]&quot;$&quot;\-#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +286,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,6 +372,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -687,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6976085A-B9FC-4CD1-931F-2113AEA9B965}">
-  <dimension ref="B2:Q12"/>
+  <dimension ref="B2:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,48 +731,48 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,13 +794,13 @@
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -1084,47 +1114,200 @@
         <v>709.42642260000002</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+    <row r="11" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="3">
+        <v>33290</v>
+      </c>
+      <c r="L11" s="15">
+        <v>5</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1815509151</v>
+      </c>
       <c r="P11" s="4">
-        <f>SUM(P5:P10)</f>
-        <v>5.1456030000000004</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>SUM(Q5:Q10)</f>
-        <v>4854.3618702000003</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="13"/>
+        <f t="shared" ref="P11:P14" si="2">G11*(K11/1000000)</f>
+        <v>9.987E-2</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" ref="Q11:Q14" si="3">P11*$Q$2</f>
+        <v>94.217358000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="4">
+        <f>SUM(P5:P14)</f>
+        <v>5.2454730000000005</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM(Q5:Q14)</f>
+        <v>4948.5792282000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1160,7 +1343,7 @@
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1172,7 +1355,7 @@
       <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -1189,7 +1372,7 @@
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1199,7 +1382,7 @@
       <c r="J3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">

--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B6021-8319-4605-BAAF-49F09289A149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62125EAF-29E4-4C7D-953A-DC69D0C06A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>SYSTEM</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>ft:gpt-4o-mini-2024-07-18:personal:dots-llmv7:BGWkanoQ</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv2:BGXppQIA:ckpt-step-42</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv2:BGXppkcg:ckpt-step-63</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv2:BGXpqDtb</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -508,133 +517,136 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -945,625 +957,643 @@
   <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q2" s="18">
+      <c r="Q2" s="16">
         <v>933</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="44" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="43" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>0.3</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>0.15</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <v>1.2</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>3</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>372550</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <v>10</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <v>1</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="27">
         <v>1.8</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="28">
         <v>1159080520</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="29">
         <f t="shared" ref="P5:P14" si="0">G5*(K5/1000000)</f>
         <v>1.11765</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="31">
         <f t="shared" ref="Q5:Q14" si="1">P5*$Q$2</f>
         <v>1042.7674500000001</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>0.3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>0.15</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>1.2</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>3</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>368950</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <v>10</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="26">
         <v>1</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="27">
         <v>1.8</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="28">
         <v>2000676016</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="29">
         <f t="shared" si="0"/>
         <v>1.1068500000000001</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="31">
         <f t="shared" si="1"/>
         <v>1032.6910500000001</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>0.3</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>0.15</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <v>1.2</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <v>3</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <v>328050</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="26">
         <v>10</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="26">
         <v>1</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <v>1.8</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="28">
         <v>1111156053</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="29">
         <f t="shared" si="0"/>
         <v>0.98415000000000008</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="31">
         <f t="shared" si="1"/>
         <v>918.21195000000012</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>0.3</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>0.15</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <v>1.2</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>3</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <v>143632</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="26">
         <v>4</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <v>0.1</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="26">
         <v>4</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="28">
         <v>1937114649</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="29">
         <f t="shared" si="0"/>
         <v>0.43089600000000006</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="31">
         <f t="shared" si="1"/>
         <v>402.02596800000003</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32">
+      <c r="B9" s="30">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <v>0.3</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>0.15</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <v>1.2</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>3</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>251356</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="26">
         <v>7</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="26">
         <v>1</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <v>1.8</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="28">
         <v>2044383751</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="29">
         <f t="shared" si="0"/>
         <v>0.75406800000000007</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="31">
         <f t="shared" si="1"/>
         <v>703.54544400000009</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>0.3</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>0.15</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>1.2</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>3</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <v>250663</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="26">
         <v>7</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="26">
         <v>1</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="27">
         <v>1.8</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="28">
         <v>191679768</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="29">
         <f t="shared" si="0"/>
         <v>0.75198900000000002</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="31">
         <f t="shared" si="1"/>
         <v>701.60573699999998</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32">
+      <c r="B11" s="30">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>0.3</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>0.15</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <v>1.2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="24">
         <v>3</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="26">
         <v>33290</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="26">
         <v>5</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="26">
         <v>1</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <v>1.8</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="28">
         <v>1815509151</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="29">
         <f t="shared" si="0"/>
         <v>9.987E-2</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="31">
         <f t="shared" si="1"/>
         <v>93.178709999999995</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32">
+      <c r="B12" s="30">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>0.3</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>0.15</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <v>1.2</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <v>3</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <v>261810</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="26">
         <v>10</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="26">
         <v>1</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="27">
         <v>1.8</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="28">
         <v>1875054926</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="29">
         <f t="shared" si="0"/>
         <v>0.78542999999999996</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="31">
         <f t="shared" si="1"/>
         <v>732.80619000000002</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="30">
+        <v>9</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>0.3</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>0.15</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <v>1.2</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="24">
         <v>3</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="31">
+      <c r="H13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="26">
+        <v>27784</v>
+      </c>
+      <c r="L13" s="26">
+        <v>4</v>
+      </c>
+      <c r="M13" s="26">
+        <v>1</v>
+      </c>
+      <c r="N13" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="O13" s="28">
+        <v>1146409416</v>
+      </c>
+      <c r="P13" s="29">
+        <f t="shared" si="0"/>
+        <v>8.3351999999999996E-2</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="1"/>
+        <v>77.767415999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="34">
+        <v>3</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q14" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="36">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="36">
-        <v>3</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="17">
         <f>SUM(P5:P14)</f>
-        <v>6.0309030000000003</v>
-      </c>
-      <c r="Q15" s="19">
+        <v>6.114255</v>
+      </c>
+      <c r="Q15" s="17">
         <f>SUM(Q5:Q14)</f>
-        <v>5626.832499000001</v>
+        <v>5704.5999150000007</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="25"/>
+      <c r="L16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1616,7 +1646,7 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3"/>
@@ -1631,7 +1661,7 @@
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="54" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="3"/>
@@ -1649,7 +1679,7 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1662,7 +1692,7 @@
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>

--- a/SimulationManager/Training LLM/TrainingStats.xlsx
+++ b/SimulationManager/Training LLM/TrainingStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\UnityProjects\SimulationManager\Training LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62125EAF-29E4-4C7D-953A-DC69D0C06A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246B719-284C-4E88-86BE-7B8A6E4EAFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
   <si>
     <t>SYSTEM</t>
   </si>
@@ -268,6 +268,66 @@
   </si>
   <si>
     <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv2:BGXpqDtb</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv3:BI4DnCKj:ckpt-step-42</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv3:BI4Dnn4Y:ckpt-step-63</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv3:BI4DnNKm</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-23</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv3:BI4DnCKj:ckpt-step-43</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv3:BI4Dnn4Y:ckpt-step-64</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-24</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-25</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-26</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-27</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-28</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-29</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-30</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-31</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-32</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-33</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-34</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv4:BI4OYMzE:ckpt-step-46</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv4:BI4OZAh1:ckpt-step-69</t>
+  </si>
+  <si>
+    <t>ft:gpt-4o-mini-2024-07-18:personal:dots-2nd-llmv4:BI4OZWOZ</t>
   </si>
 </sst>
 </file>
@@ -301,11 +361,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -491,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -517,15 +576,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,9 +597,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="7" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,9 +633,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,6 +640,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="7" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,7 +693,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -954,632 +1001,1097 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:Q16"/>
+  <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q2" s="16">
+      <c r="Q2" s="13">
         <v>933</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="51" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="43" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="42"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>0.3</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>0.15</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>1.2</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="20">
         <v>3</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="22">
         <v>372550</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="22">
         <v>10</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="22">
         <v>1</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="23">
         <v>1.8</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="24">
         <v>1159080520</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="25">
         <f t="shared" ref="P5:P14" si="0">G5*(K5/1000000)</f>
         <v>1.11765</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="27">
         <f t="shared" ref="Q5:Q14" si="1">P5*$Q$2</f>
         <v>1042.7674500000001</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30">
+      <c r="B6" s="26">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="20">
         <v>0.3</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <v>0.15</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <v>1.2</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="20">
         <v>3</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="22">
         <v>368950</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="22">
         <v>10</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="22">
         <v>1</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="23">
         <v>1.8</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="24">
         <v>2000676016</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="25">
         <f t="shared" si="0"/>
         <v>1.1068500000000001</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="27">
         <f t="shared" si="1"/>
         <v>1032.6910500000001</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30">
+      <c r="B7" s="26">
         <v>3</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>0.3</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>0.15</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <v>1.2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="20">
         <v>3</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <v>328050</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="22">
         <v>10</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="22">
         <v>1</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="23">
         <v>1.8</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="24">
         <v>1111156053</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="25">
         <f t="shared" si="0"/>
         <v>0.98415000000000008</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="27">
         <f t="shared" si="1"/>
         <v>918.21195000000012</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30">
+    <row r="8" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="20">
         <v>0.3</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>0.15</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>1.2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="20">
         <v>3</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="22">
         <v>143632</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="22">
         <v>4</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="23">
         <v>0.1</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="22">
         <v>4</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="24">
         <v>1937114649</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="25">
         <f t="shared" si="0"/>
         <v>0.43089600000000006</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="27">
         <f t="shared" si="1"/>
         <v>402.02596800000003</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
+    <row r="9" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
         <v>5</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>0.3</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>0.15</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>1.2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="20">
         <v>3</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="22">
         <v>251356</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="22">
         <v>7</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="22">
         <v>1</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="23">
         <v>1.8</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="24">
         <v>2044383751</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="25">
         <f t="shared" si="0"/>
         <v>0.75406800000000007</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="27">
         <f t="shared" si="1"/>
         <v>703.54544400000009</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30">
+    <row r="10" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
         <v>6</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="20">
         <v>0.3</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>0.15</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <v>1.2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="20">
         <v>3</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="22">
         <v>250663</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="22">
         <v>7</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="22">
         <v>1</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="23">
         <v>1.8</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="24">
         <v>191679768</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="25">
         <f t="shared" si="0"/>
         <v>0.75198900000000002</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="27">
         <f t="shared" si="1"/>
         <v>701.60573699999998</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30">
+    <row r="11" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
         <v>7</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>0.3</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>0.15</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>1.2</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
         <v>3</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="22">
         <v>33290</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="22">
         <v>5</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="22">
         <v>1</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="23">
         <v>1.8</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="24">
         <v>1815509151</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="25">
         <f t="shared" si="0"/>
         <v>9.987E-2</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="27">
         <f t="shared" si="1"/>
         <v>93.178709999999995</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30">
+    <row r="12" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
         <v>8</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="20">
         <v>0.3</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>0.15</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>1.2</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <v>3</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="22">
         <v>261810</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="22">
         <v>10</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="22">
         <v>1</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="23">
         <v>1.8</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="24">
         <v>1875054926</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="25">
         <f t="shared" si="0"/>
         <v>0.78542999999999996</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="27">
         <f t="shared" si="1"/>
         <v>732.80619000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30">
+    <row r="13" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
         <v>9</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="20">
         <v>0.3</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <v>0.15</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
         <v>1.2</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="20">
         <v>3</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="22">
         <v>27784</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="22">
         <v>4</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="22">
         <v>1</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="23">
         <v>1.8</v>
       </c>
-      <c r="O13" s="28">
-        <v>1146409416</v>
-      </c>
-      <c r="P13" s="29">
+      <c r="O13" s="24">
+        <v>1815509151</v>
+      </c>
+      <c r="P13" s="25">
         <f t="shared" si="0"/>
         <v>8.3351999999999996E-2</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="27">
         <f t="shared" si="1"/>
         <v>77.767415999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33" t="s">
+    <row r="14" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="20">
         <v>0.3</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="20">
         <v>0.15</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="20">
         <v>1.2</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="20">
         <v>3</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="37">
+      <c r="H14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="22">
+        <v>27784</v>
+      </c>
+      <c r="L14" s="22">
+        <v>4</v>
+      </c>
+      <c r="M14" s="22">
+        <v>1</v>
+      </c>
+      <c r="N14" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="O14" s="24">
+        <v>1146409416</v>
+      </c>
+      <c r="P14" s="25">
         <f t="shared" si="0"/>
+        <v>8.3351999999999996E-2</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" si="1"/>
+        <v>77.767415999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
+        <v>11</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="22">
+        <v>27784</v>
+      </c>
+      <c r="L15" s="22">
+        <v>4</v>
+      </c>
+      <c r="M15" s="22">
+        <v>1</v>
+      </c>
+      <c r="N15" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="O15" s="24">
+        <v>1540181535</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" ref="P15:P26" si="2">G15*(K15/1000000)</f>
+        <v>8.3351999999999996E-2</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" ref="Q15:Q26" si="3">P15*$Q$2</f>
+        <v>77.767415999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>12</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="22">
+        <v>30096</v>
+      </c>
+      <c r="L16" s="22">
+        <v>4</v>
+      </c>
+      <c r="M16" s="22">
+        <v>1</v>
+      </c>
+      <c r="N16" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="O16" s="24">
+        <v>2066556991</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" si="2"/>
+        <v>9.0288000000000007E-2</v>
+      </c>
+      <c r="Q16" s="27">
+        <f t="shared" si="3"/>
+        <v>84.238704000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <v>13</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G17" s="20">
+        <v>3</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="38">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="27">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="17">
-        <f>SUM(P5:P14)</f>
-        <v>6.114255</v>
-      </c>
-      <c r="Q15" s="17">
-        <f>SUM(Q5:Q14)</f>
-        <v>5704.5999150000007</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="23"/>
+    <row r="18" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>14</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G18" s="20">
+        <v>3</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>15</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="20">
+        <v>3</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>16</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G20" s="20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>17</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="20">
+        <v>3</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G22" s="20">
+        <v>3</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>19</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G23" s="20">
+        <v>3</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>20</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G24" s="20">
+        <v>3</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>21</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="20">
+        <v>3</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="28">
+        <v>22</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="G26" s="30">
+        <v>3</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="14">
+        <f>SUM(P5:P26)</f>
+        <v>6.3712469999999994</v>
+      </c>
+      <c r="Q27" s="14">
+        <f>SUM(Q5:Q26)</f>
+        <v>5944.3734510000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1595,7 +2107,9 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1646,7 +2160,7 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3"/>
@@ -1661,7 +2175,7 @@
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="3"/>
@@ -1679,7 +2193,7 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1692,7 +2206,7 @@
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
